--- a/biology/Microbiologie/Sphingomonadaceae/Sphingomonadaceae.xlsx
+++ b/biology/Microbiologie/Sphingomonadaceae/Sphingomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sphingomonadaceae sont une famille de protéobactéries à coloration Gram négative de l'ordre des Sphingomonadales.
-Cette famille regroupe une quinzaine de genres, dont certaines espèces sont des bactéries phytopathogènes. Le genre type est Sphingomonas[2].
-Une caractéristique importante des Sphingomonadaceae est la présence de sphingolipides dans la membrane externe de la paroi cellulaire[3]. 
+Cette famille regroupe une quinzaine de genres, dont certaines espèces sont des bactéries phytopathogènes. Le genre type est Sphingomonas.
+Une caractéristique importante des Sphingomonadaceae est la présence de sphingolipides dans la membrane externe de la paroi cellulaire. 
 Les cellules sont ovoïdes ou en forme de bâtonnet. Certaines sont également pléomorphes, c'est-à-dire que les cellules changent de forme au fil du temps. Certaines espèces sont phototrophes.
-Les Sphingomonadaceae sont aussi connues par la capacité de certaines espèces à dégrader certains composés aromatiques. Cela rend ces bactéries intéressantes pour la dépollution de l'environnement[4].
+Les Sphingomonadaceae sont aussi connues par la capacité de certaines espèces à dégrader certains composés aromatiques. Cela rend ces bactéries intéressantes pour la dépollution de l'environnement.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 août 2014)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 août 2014) :
 genre Aminobacter
 genre Blastomonas
 genre Erythrobacter
@@ -531,7 +545,7 @@
 genre Sphingopyxis
 genre Sphingosinicella
 genre Zymomonas
-Selon World Register of Marine Species                               (15 août 2014)[6] :
+Selon World Register of Marine Species                               (15 août 2014) :
 genre Blastomonas Sly &amp; Cahill, 1997
 genre Citromicrobium
 genre Lutibacterium
@@ -570,9 +584,11 @@
           <t>Liste des genres et non classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 août 2014)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 août 2014) :
 genre Blastomonas
 Blastomonas natatoria
 genre Citromicrobium
